--- a/data/trans_orig/Q23_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF0589E-1C60-44A3-BA1C-695CF5C32F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26880FE9-82CB-45D2-A38F-FB20DC24FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BB421EF-97BA-4F06-87E3-E082323253EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2389E3D1-FC13-4351-9C3E-D24A76B7ECDD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
   <si>
     <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>43,95%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>40,38%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>56,05%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
   </si>
   <si>
     <t>59,62%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,49 +138,55 @@
     <t>39,19%</t>
   </si>
   <si>
-    <t>34,17%</t>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
   <si>
     <t>35,24%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>60,81%</t>
   </si>
   <si>
-    <t>65,83%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>64,76%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -189,55 +195,55 @@
     <t>34,46%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
   </si>
   <si>
     <t>22,15%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -246,55 +252,55 @@
     <t>35,9%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>32,73%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>67,27%</t>
   </si>
   <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -303,19 +309,19 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
   </si>
   <si>
     <t>32,59%</t>
@@ -324,406 +330,388 @@
     <t>29,47%</t>
   </si>
   <si>
-    <t>35,68%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>65,88%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>64,32%</t>
+    <t>64,15%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>35,85%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>33,77%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>66,23%</t>
   </si>
   <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
+    <t>75,99%</t>
   </si>
   <si>
     <t>67,72%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
+    <t>41,42%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>63,28%</t>
   </si>
   <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>58,58%</t>
   </si>
   <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>36,37%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>30,77%</t>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
   </si>
   <si>
     <t>63,63%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>69,23%</t>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>33,31%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
   </si>
   <si>
     <t>63,51%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49D20D-B7A6-4A36-9ED5-E7AEDFD4A4F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC61DC9-CF09-4F18-ADD1-7EC41FD007E7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1420,7 +1408,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -1429,13 +1417,13 @@
         <v>42260</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>161</v>
@@ -1444,13 +1432,13 @@
         <v>163491</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1453,13 @@
         <v>188072</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>111</v>
@@ -1480,13 +1468,13 @@
         <v>112401</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>300</v>
@@ -1495,13 +1483,13 @@
         <v>300473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,7 +1545,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1557,13 @@
         <v>183588</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -1584,13 +1572,13 @@
         <v>62858</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>234</v>
@@ -1599,13 +1587,13 @@
         <v>246446</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1608,13 @@
         <v>349209</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -1635,13 +1623,13 @@
         <v>220975</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>532</v>
@@ -1650,13 +1638,13 @@
         <v>570184</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,7 +1700,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1724,13 +1712,13 @@
         <v>127263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -1739,28 +1727,28 @@
         <v>54274</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
       </c>
       <c r="N13" s="7">
-        <v>181538</v>
+        <v>181537</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1763,13 @@
         <v>227269</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>149</v>
@@ -1790,13 +1778,13 @@
         <v>145784</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -1805,13 +1793,13 @@
         <v>373052</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1841,7 @@
         <v>540</v>
       </c>
       <c r="N15" s="7">
-        <v>554590</v>
+        <v>554589</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1855,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1879,13 +1867,13 @@
         <v>177088</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>109</v>
@@ -1894,13 +1882,13 @@
         <v>110606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>298</v>
@@ -1909,13 +1897,13 @@
         <v>287694</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1918,13 @@
         <v>341974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -1945,13 +1933,13 @@
         <v>253216</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>594</v>
@@ -1960,13 +1948,13 @@
         <v>595190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2022,13 @@
         <v>641679</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>276</v>
@@ -2049,13 +2037,13 @@
         <v>278236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>908</v>
@@ -2064,13 +2052,13 @@
         <v>919915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,7 +2073,7 @@
         <v>1147973</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>115</v>
@@ -2198,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2FE53-9146-46D1-9106-DE3782ACEE7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDEAE3-2EF4-41BF-83AE-328242753D19}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2498,7 +2486,7 @@
         <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -2507,13 +2495,13 @@
         <v>182323</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2516,13 @@
         <v>236346</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>138</v>
@@ -2543,13 +2531,13 @@
         <v>146968</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>361</v>
@@ -2558,13 +2546,13 @@
         <v>383314</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2608,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2632,13 +2620,13 @@
         <v>221908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>101</v>
@@ -2647,13 +2635,13 @@
         <v>108675</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>306</v>
@@ -2662,13 +2650,13 @@
         <v>330583</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2671,13 @@
         <v>422093</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -2698,13 +2686,13 @@
         <v>271564</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>630</v>
@@ -2713,13 +2701,13 @@
         <v>693658</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,7 +2763,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2787,13 +2775,13 @@
         <v>177359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -2802,13 +2790,13 @@
         <v>96722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>251</v>
@@ -2817,13 +2805,13 @@
         <v>274081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2826,13 @@
         <v>305704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>209</v>
@@ -2853,13 +2841,13 @@
         <v>233517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>480</v>
@@ -2868,13 +2856,13 @@
         <v>539220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2918,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2942,13 +2930,13 @@
         <v>199891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
@@ -2957,13 +2945,13 @@
         <v>122439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>305</v>
@@ -2972,13 +2960,13 @@
         <v>322329</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2981,13 @@
         <v>349755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -3008,13 +2996,13 @@
         <v>278179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>599</v>
@@ -3023,13 +3011,13 @@
         <v>627934</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3085,13 @@
         <v>775491</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>344</v>
@@ -3112,13 +3100,13 @@
         <v>376424</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>1073</v>
@@ -3127,13 +3115,13 @@
         <v>1151915</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3136,13 @@
         <v>1349821</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>881</v>
@@ -3163,13 +3151,13 @@
         <v>956652</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>2131</v>
@@ -3178,13 +3166,13 @@
         <v>2306473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q23_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Habitat-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26880FE9-82CB-45D2-A38F-FB20DC24FA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95B5428C-D045-4E66-A513-346DAD38DA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2389E3D1-FC13-4351-9C3E-D24A76B7ECDD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{538E20DA-D25E-4617-B877-E5F03068DCE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,652 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>43,95%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2016 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2023 (Tasa respuesta: 34,37%)</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
   </si>
   <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC61DC9-CF09-4F18-ADD1-7EC41FD007E7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33764355-25C6-4FD4-B4D4-572690E72891}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1241,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="D4" s="7">
-        <v>32508</v>
+        <v>153739</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1256,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>8239</v>
+        <v>50498</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1271,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="N4" s="7">
-        <v>40747</v>
+        <v>204237</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1292,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="D5" s="7">
-        <v>41450</v>
+        <v>229522</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1307,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="I5" s="7">
-        <v>18706</v>
+        <v>131108</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1322,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="N5" s="7">
-        <v>60156</v>
+        <v>360630</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1343,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>377</v>
       </c>
       <c r="D6" s="7">
-        <v>73958</v>
+        <v>383261</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="I6" s="7">
-        <v>26945</v>
+        <v>181606</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>97</v>
+        <v>558</v>
       </c>
       <c r="N6" s="7">
-        <v>100903</v>
+        <v>564867</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1396,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="D7" s="7">
-        <v>121231</v>
+        <v>183588</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1411,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>42260</v>
+        <v>62858</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1426,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="N7" s="7">
-        <v>163491</v>
+        <v>246446</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1447,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="D8" s="7">
-        <v>188072</v>
+        <v>349209</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1462,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>112401</v>
+        <v>220975</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1477,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>300</v>
+        <v>532</v>
       </c>
       <c r="N8" s="7">
-        <v>300473</v>
+        <v>570184</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1498,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>309</v>
+        <v>498</v>
       </c>
       <c r="D9" s="7">
-        <v>309303</v>
+        <v>532797</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="I9" s="7">
-        <v>154661</v>
+        <v>283833</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>461</v>
+        <v>766</v>
       </c>
       <c r="N9" s="7">
-        <v>463964</v>
+        <v>816630</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1551,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D10" s="7">
-        <v>183588</v>
+        <v>127263</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1566,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>62858</v>
+        <v>54274</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1581,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="N10" s="7">
-        <v>246446</v>
+        <v>181537</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1602,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>349209</v>
+        <v>227269</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1617,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>220975</v>
+        <v>145784</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1632,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>532</v>
+        <v>365</v>
       </c>
       <c r="N11" s="7">
-        <v>570184</v>
+        <v>373052</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1653,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>498</v>
+        <v>335</v>
       </c>
       <c r="D12" s="7">
-        <v>532797</v>
+        <v>354532</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1668,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="I12" s="7">
-        <v>283833</v>
+        <v>200058</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1683,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>766</v>
+        <v>540</v>
       </c>
       <c r="N12" s="7">
-        <v>816630</v>
+        <v>554589</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1706,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7">
-        <v>127263</v>
+        <v>177088</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1721,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="I13" s="7">
-        <v>54274</v>
+        <v>110606</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1736,10 +2173,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>175</v>
+        <v>298</v>
       </c>
       <c r="N13" s="7">
-        <v>181537</v>
+        <v>287694</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1757,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>355</v>
       </c>
       <c r="D14" s="7">
-        <v>227269</v>
+        <v>341974</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1772,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="I14" s="7">
-        <v>145784</v>
+        <v>253216</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1787,10 +2224,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>365</v>
+        <v>594</v>
       </c>
       <c r="N14" s="7">
-        <v>373052</v>
+        <v>595190</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1808,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>335</v>
+        <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>354532</v>
+        <v>519062</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1823,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>205</v>
+        <v>348</v>
       </c>
       <c r="I15" s="7">
-        <v>200058</v>
+        <v>363822</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1838,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>540</v>
+        <v>892</v>
       </c>
       <c r="N15" s="7">
-        <v>554589</v>
+        <v>882884</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1855,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>189</v>
+        <v>632</v>
       </c>
       <c r="D16" s="7">
-        <v>177088</v>
+        <v>641678</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>276</v>
+      </c>
+      <c r="I16" s="7">
+        <v>278236</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>109</v>
-      </c>
-      <c r="I16" s="7">
-        <v>110606</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>908</v>
+      </c>
+      <c r="N16" s="7">
+        <v>919915</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>298</v>
-      </c>
-      <c r="N16" s="7">
-        <v>287694</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>355</v>
+        <v>1122</v>
       </c>
       <c r="D17" s="7">
-        <v>341974</v>
+        <v>1147973</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>726</v>
+      </c>
+      <c r="I17" s="7">
+        <v>751083</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>239</v>
-      </c>
-      <c r="I17" s="7">
-        <v>253216</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1848</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1899056</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>594</v>
-      </c>
-      <c r="N17" s="7">
-        <v>595190</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>544</v>
+        <v>1754</v>
       </c>
       <c r="D18" s="7">
-        <v>519062</v>
+        <v>1789651</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1978,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>348</v>
+        <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>363822</v>
+        <v>1029319</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1993,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>892</v>
+        <v>2756</v>
       </c>
       <c r="N18" s="7">
-        <v>882884</v>
+        <v>2818971</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2009,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>632</v>
-      </c>
-      <c r="D19" s="7">
-        <v>641679</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>276</v>
-      </c>
-      <c r="I19" s="7">
-        <v>278236</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>908</v>
-      </c>
-      <c r="N19" s="7">
-        <v>919915</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1122</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1147973</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>726</v>
-      </c>
-      <c r="I20" s="7">
-        <v>751083</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1848</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1899056</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1754</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1789652</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1002</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1029319</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2756</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2818971</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2186,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDEAE3-2EF4-41BF-83AE-328242753D19}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C259DF20-5FDA-4921-832C-222E1E30DC20}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2203,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2304,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="D4" s="7">
-        <v>36822</v>
+        <v>176333</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7">
-        <v>5777</v>
+        <v>48589</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="N4" s="7">
-        <v>42599</v>
+        <v>224922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="D5" s="7">
-        <v>35923</v>
+        <v>272269</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>26424</v>
+        <v>173392</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>61</v>
+        <v>422</v>
       </c>
       <c r="N5" s="7">
-        <v>62347</v>
+        <v>445661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="D6" s="7">
-        <v>72745</v>
+        <v>448602</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2421,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="I6" s="7">
-        <v>32201</v>
+        <v>221981</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2436,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>103</v>
+        <v>633</v>
       </c>
       <c r="N6" s="7">
-        <v>104946</v>
+        <v>670583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2459,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>205</v>
+      </c>
+      <c r="D7" s="7">
+        <v>221908</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="7">
+        <v>101</v>
+      </c>
+      <c r="I7" s="7">
+        <v>108675</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="7">
+        <v>306</v>
+      </c>
+      <c r="N7" s="7">
+        <v>330583</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="7">
-        <v>139511</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="7">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7">
-        <v>42812</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="7">
-        <v>169</v>
-      </c>
-      <c r="N7" s="7">
-        <v>182323</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="D8" s="7">
-        <v>236346</v>
+        <v>422093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
+        <v>246</v>
+      </c>
+      <c r="I8" s="7">
+        <v>271564</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="7">
+        <v>630</v>
+      </c>
+      <c r="N8" s="7">
+        <v>693658</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="7">
-        <v>146968</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" s="7">
-        <v>361</v>
-      </c>
-      <c r="N8" s="7">
-        <v>383314</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>352</v>
+        <v>589</v>
       </c>
       <c r="D9" s="7">
-        <v>375857</v>
+        <v>644001</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2576,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="I9" s="7">
-        <v>189780</v>
+        <v>380239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2591,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>530</v>
+        <v>936</v>
       </c>
       <c r="N9" s="7">
-        <v>565637</v>
+        <v>1024241</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2614,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="D10" s="7">
-        <v>221908</v>
+        <v>177359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>108675</v>
+        <v>96722</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="N10" s="7">
-        <v>330583</v>
+        <v>274081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>422093</v>
+        <v>305704</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="I11" s="7">
-        <v>271564</v>
+        <v>233517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="N11" s="7">
-        <v>693658</v>
+        <v>539220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>589</v>
+        <v>435</v>
       </c>
       <c r="D12" s="7">
-        <v>644001</v>
+        <v>483063</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2731,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="I12" s="7">
-        <v>380239</v>
+        <v>330239</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2746,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>936</v>
+        <v>731</v>
       </c>
       <c r="N12" s="7">
-        <v>1024241</v>
+        <v>813301</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2769,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>193</v>
+      </c>
+      <c r="D13" s="7">
+        <v>199891</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7">
+        <v>112</v>
+      </c>
+      <c r="I13" s="7">
+        <v>122439</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="7">
+        <v>305</v>
+      </c>
+      <c r="N13" s="7">
+        <v>322329</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="7">
-        <v>177359</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="7">
-        <v>87</v>
-      </c>
-      <c r="I13" s="7">
-        <v>96722</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="M13" s="7">
-        <v>251</v>
-      </c>
-      <c r="N13" s="7">
-        <v>274081</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="D14" s="7">
-        <v>305704</v>
+        <v>349755</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="I14" s="7">
-        <v>233517</v>
+        <v>278179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>480</v>
+        <v>599</v>
       </c>
       <c r="N14" s="7">
-        <v>539220</v>
+        <v>627934</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="D15" s="7">
-        <v>483063</v>
+        <v>549646</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2886,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>296</v>
+        <v>377</v>
       </c>
       <c r="I15" s="7">
-        <v>330239</v>
+        <v>400618</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2901,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>731</v>
+        <v>904</v>
       </c>
       <c r="N15" s="7">
-        <v>813301</v>
+        <v>950263</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2918,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>193</v>
+        <v>729</v>
       </c>
       <c r="D16" s="7">
-        <v>199891</v>
+        <v>775491</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>112</v>
+        <v>344</v>
       </c>
       <c r="I16" s="7">
-        <v>122439</v>
+        <v>376424</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>305</v>
+        <v>1073</v>
       </c>
       <c r="N16" s="7">
-        <v>322329</v>
+        <v>1151915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>334</v>
+        <v>1250</v>
       </c>
       <c r="D17" s="7">
-        <v>349755</v>
+        <v>1349821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>265</v>
+        <v>881</v>
       </c>
       <c r="I17" s="7">
-        <v>278179</v>
+        <v>956652</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>599</v>
+        <v>2131</v>
       </c>
       <c r="N17" s="7">
-        <v>627934</v>
+        <v>2306473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>527</v>
+        <v>1979</v>
       </c>
       <c r="D18" s="7">
-        <v>549646</v>
+        <v>2125312</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3041,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>377</v>
+        <v>1225</v>
       </c>
       <c r="I18" s="7">
-        <v>400618</v>
+        <v>1333076</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3056,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>904</v>
+        <v>3204</v>
       </c>
       <c r="N18" s="7">
-        <v>950263</v>
+        <v>3458388</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3072,171 +3353,1829 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>729</v>
-      </c>
-      <c r="D19" s="7">
-        <v>775491</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>344</v>
-      </c>
-      <c r="I19" s="7">
-        <v>376424</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1073</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1151915</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1250</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1349821</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>881</v>
-      </c>
-      <c r="I20" s="7">
-        <v>956652</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2131</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2306473</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1979</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2125312</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1225</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1333076</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3458388</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEA063B-779F-43B0-A1F9-A6FA1A56E320}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28393</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3640</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="7">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7">
+        <v>32033</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15496</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
+        <v>9692</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M5" s="7">
+        <v>25</v>
+      </c>
+      <c r="N5" s="7">
+        <v>25188</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43889</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>13332</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>54</v>
+      </c>
+      <c r="N6" s="7">
+        <v>57221</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>26501</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10312</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="M7" s="7">
+        <v>36</v>
+      </c>
+      <c r="N7" s="7">
+        <v>36813</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7">
+        <v>20304</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="7">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
+        <v>13761</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="7">
+        <v>33</v>
+      </c>
+      <c r="N8" s="7">
+        <v>34065</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46805</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7">
+        <v>24073</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>69</v>
+      </c>
+      <c r="N9" s="7">
+        <v>70878</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>17288</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6843</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M10" s="7">
+        <v>23</v>
+      </c>
+      <c r="N10" s="7">
+        <v>24132</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18675</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4856</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M11" s="7">
+        <v>21</v>
+      </c>
+      <c r="N11" s="7">
+        <v>23531</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7">
+        <v>35963</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>11699</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>44</v>
+      </c>
+      <c r="N12" s="7">
+        <v>47663</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <v>27766</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12082</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="7">
+        <v>38</v>
+      </c>
+      <c r="N13" s="7">
+        <v>39848</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44224</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>10858</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M14" s="7">
+        <v>53</v>
+      </c>
+      <c r="N14" s="7">
+        <v>55081</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>71990</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22940</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>91</v>
+      </c>
+      <c r="N15" s="7">
+        <v>94929</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>94</v>
+      </c>
+      <c r="D16" s="7">
+        <v>99949</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="7">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32877</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M16" s="7">
+        <v>126</v>
+      </c>
+      <c r="N16" s="7">
+        <v>132825</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>93</v>
+      </c>
+      <c r="D17" s="7">
+        <v>98698</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
+        <v>39</v>
+      </c>
+      <c r="I17" s="7">
+        <v>39167</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="7">
+        <v>132</v>
+      </c>
+      <c r="N17" s="7">
+        <v>137866</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>187</v>
+      </c>
+      <c r="D18" s="7">
+        <v>198647</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>71</v>
+      </c>
+      <c r="I18" s="7">
+        <v>72044</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>258</v>
+      </c>
+      <c r="N18" s="7">
+        <v>270691</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94671BE7-0B5C-49C8-8A03-124CCD7EF8A5}">
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>136</v>
+      </c>
+      <c r="D4" s="7">
+        <v>110328</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7">
+        <v>29969</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="7">
+        <v>176</v>
+      </c>
+      <c r="N4" s="7">
+        <v>140297</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>206</v>
+      </c>
+      <c r="D5" s="7">
+        <v>179613</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="7">
+        <v>226</v>
+      </c>
+      <c r="I5" s="7">
+        <v>138915</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" s="7">
+        <v>432</v>
+      </c>
+      <c r="N5" s="7">
+        <v>318528</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>342</v>
+      </c>
+      <c r="D6" s="7">
+        <v>289941</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>266</v>
+      </c>
+      <c r="I6" s="7">
+        <v>168884</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>608</v>
+      </c>
+      <c r="N6" s="7">
+        <v>458825</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>133</v>
+      </c>
+      <c r="D7" s="7">
+        <v>120616</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="7">
+        <v>84</v>
+      </c>
+      <c r="I7" s="7">
+        <v>56117</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="M7" s="7">
+        <v>217</v>
+      </c>
+      <c r="N7" s="7">
+        <v>176733</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>279</v>
+      </c>
+      <c r="D8" s="7">
+        <v>512327</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7">
+        <v>302</v>
+      </c>
+      <c r="I8" s="7">
+        <v>203597</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="M8" s="7">
+        <v>581</v>
+      </c>
+      <c r="N8" s="7">
+        <v>715924</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>412</v>
+      </c>
+      <c r="D9" s="7">
+        <v>632943</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>386</v>
+      </c>
+      <c r="I9" s="7">
+        <v>259714</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>798</v>
+      </c>
+      <c r="N9" s="7">
+        <v>892657</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7">
+        <v>108303</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="7">
+        <v>81</v>
+      </c>
+      <c r="I10" s="7">
+        <v>63087</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="M10" s="7">
+        <v>183</v>
+      </c>
+      <c r="N10" s="7">
+        <v>171391</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>226</v>
+      </c>
+      <c r="D11" s="7">
+        <v>231989</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="7">
+        <v>239</v>
+      </c>
+      <c r="I11" s="7">
+        <v>164472</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M11" s="7">
+        <v>465</v>
+      </c>
+      <c r="N11" s="7">
+        <v>396461</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>328</v>
+      </c>
+      <c r="D12" s="7">
+        <v>340292</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>320</v>
+      </c>
+      <c r="I12" s="7">
+        <v>227559</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>648</v>
+      </c>
+      <c r="N12" s="7">
+        <v>567852</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>174</v>
+      </c>
+      <c r="D13" s="7">
+        <v>148721</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" s="7">
+        <v>127</v>
+      </c>
+      <c r="I13" s="7">
+        <v>85887</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M13" s="7">
+        <v>301</v>
+      </c>
+      <c r="N13" s="7">
+        <v>234609</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>297</v>
+      </c>
+      <c r="D14" s="7">
+        <v>257722</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="7">
+        <v>353</v>
+      </c>
+      <c r="I14" s="7">
+        <v>231667</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M14" s="7">
+        <v>650</v>
+      </c>
+      <c r="N14" s="7">
+        <v>489388</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>471</v>
+      </c>
+      <c r="D15" s="7">
+        <v>406443</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>480</v>
+      </c>
+      <c r="I15" s="7">
+        <v>317554</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>951</v>
+      </c>
+      <c r="N15" s="7">
+        <v>723997</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>545</v>
+      </c>
+      <c r="D16" s="7">
+        <v>487969</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="7">
+        <v>332</v>
+      </c>
+      <c r="I16" s="7">
+        <v>235060</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M16" s="7">
+        <v>877</v>
+      </c>
+      <c r="N16" s="7">
+        <v>723029</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1008</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1181651</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1120</v>
+      </c>
+      <c r="I17" s="7">
+        <v>738651</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2128</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1920302</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1553</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1669620</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1452</v>
+      </c>
+      <c r="I18" s="7">
+        <v>973711</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3005</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2643331</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
